--- a/tests/_data/page_base.xlsx
+++ b/tests/_data/page_base.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>//*[@id="rso"]/div[2]/div</t>
+  </si>
+  <si>
+    <t>rows</t>
+  </si>
+  <si>
+    <t>//*[@id="rso"]/div[6]/div</t>
   </si>
   <si>
     <t>username</t>
@@ -186,6 +192,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -194,10 +259,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,52 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -265,14 +293,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,13 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -300,35 +335,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -345,181 +351,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,6 +536,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -574,9 +595,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,45 +636,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,127 +660,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1308,13 +1314,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="78.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="43.2857142857143" customWidth="1"/>
@@ -1386,6 +1392,17 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1432,32 +1449,32 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1465,21 +1482,21 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1487,21 +1504,21 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1509,13 +1526,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1561,10 +1578,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1572,10 +1589,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1583,10 +1600,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1594,10 +1611,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1605,10 +1622,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -1662,7 +1679,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1711,10 +1728,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1722,10 +1739,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1733,10 +1750,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1744,10 +1761,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>

--- a/tests/_data/page_base.xlsx
+++ b/tests/_data/page_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12495"/>
+    <workbookView windowWidth="15825" windowHeight="7815" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IntroPage" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="TerminalX" sheetId="3" r:id="rId3"/>
     <sheet name="ST" sheetId="4" r:id="rId4"/>
     <sheet name="cupid" sheetId="5" r:id="rId5"/>
+    <sheet name="Gov" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -165,6 +166,18 @@
   </si>
   <si>
     <t>div.login-actions &gt; button:nth-child(1)</t>
+  </si>
+  <si>
+    <t>svg-gov-icon</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>current-lang-container</t>
+  </si>
+  <si>
+    <t>CLASS</t>
   </si>
 </sst>
 </file>
@@ -172,9 +185,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -193,9 +206,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,6 +279,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -215,42 +302,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -259,6 +310,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -268,73 +342,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -351,181 +364,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,6 +549,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -550,6 +578,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,21 +639,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -603,43 +649,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,127 +673,127 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1316,7 +1329,7 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1702,7 +1715,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A1" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1779,4 +1792,70 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="40.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="22.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C4:C5">
+      <formula1>"ID, NAME, CSS, XPATH"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>"ID, NAME, CSS, XPATH,CLASS"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/tests/_data/page_base.xlsx
+++ b/tests/_data/page_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15825" windowHeight="7815" activeTab="5"/>
+    <workbookView windowWidth="24225" windowHeight="12495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IntroPage" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -156,7 +156,25 @@
     <t>div.header-logo-wrapper_1Y8r &gt; a</t>
   </si>
   <si>
-    <t>//*[@id="__next"]/div[2]/div[2]/div/div[2]/div/div[2]/div[2]/div/div/div</t>
+    <t>login_with_microsoft</t>
+  </si>
+  <si>
+    <t>loginfmt</t>
+  </si>
+  <si>
+    <t>next_button</t>
+  </si>
+  <si>
+    <t>idSIButton9</t>
+  </si>
+  <si>
+    <t>passwd</t>
+  </si>
+  <si>
+    <t>signin</t>
+  </si>
+  <si>
+    <t>//*[@id="idSIButton9"]</t>
   </si>
   <si>
     <t>sign_in</t>
@@ -185,9 +203,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -205,27 +223,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -234,6 +231,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -243,7 +347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,93 +361,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,85 +382,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,91 +550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,6 +567,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -567,26 +594,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,30 +619,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -649,18 +643,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,130 +688,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1660,13 +1678,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="86" customWidth="1"/>
@@ -1689,12 +1707,56 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1741,10 +1803,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1777,7 +1839,7 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1799,7 +1861,7 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1829,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1837,13 +1899,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/tests/_data/page_base.xlsx
+++ b/tests/_data/page_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12495" activeTab="3"/>
+    <workbookView windowWidth="15825" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="IntroPage" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>button</t>
   </si>
   <si>
-    <t>btnK</t>
+    <t>btn</t>
   </si>
   <si>
     <t>X</t>
@@ -203,9 +203,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -231,6 +231,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -239,6 +255,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -246,7 +276,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,17 +299,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,8 +321,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,73 +360,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -382,181 +382,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,23 +573,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,6 +595,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -624,11 +624,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,42 +667,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,127 +691,127 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1347,8 +1347,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1680,7 +1680,7 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/tests/_data/page_base.xlsx
+++ b/tests/_data/page_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15825" windowHeight="7815"/>
+    <workbookView windowWidth="19725" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="IntroPage" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <t>button</t>
   </si>
   <si>
-    <t>btn</t>
+    <t>btnK</t>
   </si>
   <si>
     <t>X</t>
@@ -203,10 +203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -218,6 +218,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -231,6 +239,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -241,83 +331,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,19 +353,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,21 +366,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -382,169 +382,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,7 +574,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,17 +609,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,26 +648,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,29 +667,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -688,130 +688,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/tests/_data/page_base.xlsx
+++ b/tests/_data/page_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="7695"/>
+    <workbookView windowWidth="19725" windowHeight="7695" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="IntroPage" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="ST" sheetId="4" r:id="rId4"/>
     <sheet name="cupid" sheetId="5" r:id="rId5"/>
     <sheet name="Gov" sheetId="6" r:id="rId6"/>
+    <sheet name="tipalti" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -196,6 +197,12 @@
   </si>
   <si>
     <t>CLASS</t>
+  </si>
+  <si>
+    <t>ap_automation</t>
+  </si>
+  <si>
+    <t>wp-block-button__link wp-element-button</t>
   </si>
 </sst>
 </file>
@@ -203,12 +210,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +227,118 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,104 +350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -339,15 +360,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,13 +379,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -382,25 +395,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,73 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,73 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,8 +586,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,6 +646,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -647,38 +680,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,135 +704,136 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1347,7 +1361,7 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1862,7 +1876,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A1" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1910,10 +1924,65 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>"ID, NAME, CSS, XPATH,CLASS"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C4:C5">
       <formula1>"ID, NAME, CSS, XPATH"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="29.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="40.1904761904762" customWidth="1"/>
+    <col min="3" max="3" width="17.6380952380952" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"ID, NAME, CSS, XPATH,CLASS"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/_data/page_base.xlsx
+++ b/tests/_data/page_base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>wp-block-button__link wp-element-button</t>
+  </si>
+  <si>
+    <t>DYNAMIC</t>
   </si>
 </sst>
 </file>
@@ -210,8 +213,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -236,6 +239,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -245,7 +270,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,20 +293,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,13 +306,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -334,19 +353,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,6 +368,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -365,20 +382,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -395,12 +398,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -413,163 +566,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,15 +583,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -603,6 +597,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,17 +662,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -683,7 +686,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,130 +704,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1924,11 +1927,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C4:C5">
+      <formula1>"ID, NAME, CSS, XPATH"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"ID, NAME, CSS, XPATH,CLASS"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C4:C5">
-      <formula1>"ID, NAME, CSS, XPATH"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1942,7 +1945,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1974,7 +1977,7 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="5:5">
@@ -1983,7 +1986,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
-      <formula1>"ID, NAME, CSS, XPATH,CLASS"</formula1>
+      <formula1>"ID, NAME, CSS, XPATH,CLASS,DYNAMIC"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tests/_data/page_base.xlsx
+++ b/tests/_data/page_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="7695" activeTab="6"/>
+    <workbookView windowWidth="24225" windowHeight="12495" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="IntroPage" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -199,6 +199,9 @@
     <t>CLASS</t>
   </si>
   <si>
+    <t>actions</t>
+  </si>
+  <si>
     <t>ap_automation</t>
   </si>
   <si>
@@ -206,6 +209,15 @@
   </si>
   <si>
     <t>DYNAMIC</t>
+  </si>
+  <si>
+    <t>logos</t>
+  </si>
+  <si>
+    <t>/html/body/div[2]/div[2]/div/div[2]</t>
+  </si>
+  <si>
+    <t>MULTIPLE_ELEMENTS</t>
   </si>
 </sst>
 </file>
@@ -213,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -240,9 +252,101 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,23 +358,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,103 +389,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -398,181 +410,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,26 +609,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,18 +675,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -704,130 +716,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1945,17 +1957,18 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="29.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="40.1904761904762" customWidth="1"/>
+    <col min="2" max="2" width="68.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="17.6380952380952" customWidth="1"/>
+    <col min="4" max="4" width="28.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1965,28 +1978,48 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3:C24">
       <formula1>"ID, NAME, CSS, XPATH,CLASS,DYNAMIC"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3">
+      <formula1>"MULTIPLE_ELEMENTS,DYNAMIC"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tests/_data/page_base.xlsx
+++ b/tests/_data/page_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12495" activeTab="6"/>
+    <workbookView windowWidth="24225" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="IntroPage" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>actions</t>
+  </si>
+  <si>
     <t>image</t>
   </si>
   <si>
@@ -197,9 +200,6 @@
   </si>
   <si>
     <t>CLASS</t>
-  </si>
-  <si>
-    <t>actions</t>
   </si>
   <si>
     <t>ap_automation</t>
@@ -225,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -259,7 +259,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,17 +281,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,9 +297,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -312,15 +349,31 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,14 +387,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -349,51 +394,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -410,55 +410,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,121 +572,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,6 +595,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -613,6 +622,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -624,15 +651,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,9 +672,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,38 +695,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,127 +719,127 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,19 +1374,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="78.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="43.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1396,74 +1396,77 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1504,95 +1507,95 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1633,62 +1636,62 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1731,62 +1734,62 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1827,51 +1830,51 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1912,29 +1915,29 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1956,8 +1959,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1979,10 +1982,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2004,7 +2007,7 @@
         <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>65</v>

--- a/tests/_data/page_base.xlsx
+++ b/tests/_data/page_base.xlsx
@@ -11,16 +11,15 @@
     <sheet name="Jira" sheetId="2" r:id="rId2"/>
     <sheet name="TerminalX" sheetId="3" r:id="rId3"/>
     <sheet name="ST" sheetId="4" r:id="rId4"/>
-    <sheet name="cupid" sheetId="5" r:id="rId5"/>
-    <sheet name="Gov" sheetId="6" r:id="rId6"/>
-    <sheet name="tipalti" sheetId="7" r:id="rId7"/>
+    <sheet name="Gov" sheetId="6" r:id="rId5"/>
+    <sheet name="tipalti" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -179,15 +178,6 @@
   </si>
   <si>
     <t>//*[@id="idSIButton9"]</t>
-  </si>
-  <si>
-    <t>sign_in</t>
-  </si>
-  <si>
-    <t>//*[@id="main_content"]/div/div/div[1]/div/a</t>
-  </si>
-  <si>
-    <t>div.login-actions &gt; button:nth-child(1)</t>
   </si>
   <si>
     <t>svg-gov-icon</t>
@@ -225,10 +215,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -251,6 +241,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -258,15 +286,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,66 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -357,7 +335,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,30 +384,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -410,25 +400,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,7 +496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,139 +514,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,8 +591,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,16 +616,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,28 +651,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,18 +674,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,130 +706,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1376,8 +1366,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1806,91 +1796,6 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="20.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="56.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="35.1428571428571" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3 C4:C10">
-      <formula1>"ID, NAME, CSS, XPATH"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1923,7 +1828,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1931,13 +1836,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +1859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E9"/>
@@ -1990,27 +1895,27 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="5:5">

--- a/tests/_data/page_base.xlsx
+++ b/tests/_data/page_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19725" windowHeight="7695" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="IntroPage" sheetId="1" r:id="rId1"/>
@@ -113,10 +113,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -140,23 +140,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,6 +180,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,13 +209,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -232,14 +241,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +256,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -254,30 +277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,181 +298,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,11 +486,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,24 +551,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,26 +577,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -604,130 +604,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,8 +1058,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1152,7 +1152,10 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3:D21">
+      <formula1>"MULTIPLE_ELEMENTS"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C7:C18">
       <formula1>"ID, NAME, CSS, XPATH, LINK_TEXT, CLASS_NAME"</formula1>
     </dataValidation>
@@ -1167,8 +1170,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1292,11 +1295,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3:C24">
+      <formula1>"ID, NAME, CSS, XPATH,CLASS,DYNAMIC"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3">
       <formula1>"MULTIPLE_ELEMENTS,DYNAMIC"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3:C24">
-      <formula1>"ID, NAME, CSS, XPATH,CLASS,DYNAMIC"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tests/_data/page_base.xlsx
+++ b/tests/_data/page_base.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>//*[@id="rso"]/div[6]/div</t>
+  </si>
+  <si>
+    <t>rows1</t>
+  </si>
+  <si>
+    <t>//*[@id="rso"]</t>
   </si>
   <si>
     <t>svg-gov-icon</t>
@@ -114,9 +120,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -139,10 +145,49 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,48 +200,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,23 +215,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,8 +229,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -248,36 +283,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,19 +304,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,157 +448,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,11 +507,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,23 +573,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,34 +589,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,130 +610,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,13 +1062,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="78.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="43.2857142857143" customWidth="1"/>
@@ -1151,13 +1157,24 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 C2:C5 C9:C18">
+      <formula1>"ID, NAME, CSS, XPATH, LINK_TEXT, CLASS_NAME"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3:D21">
       <formula1>"MULTIPLE_ELEMENTS"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C7:C18">
-      <formula1>"ID, NAME, CSS, XPATH, LINK_TEXT, CLASS_NAME"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1200,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1208,13 +1225,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1267,27 +1284,27 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="5:5">

--- a/tests/_data/page_base.xlsx
+++ b/tests/_data/page_base.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12495"/>
+    <workbookView windowWidth="27952" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IntroPage" sheetId="1" r:id="rId1"/>
     <sheet name="Gov" sheetId="6" r:id="rId2"/>
     <sheet name="tipalti" sheetId="7" r:id="rId3"/>
+    <sheet name="ChatGPT" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -112,17 +113,23 @@
   </si>
   <si>
     <t>MULTIPLE_ELEMENTS</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>data-testid="login-button"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -145,9 +152,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,29 +170,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,15 +183,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -214,6 +207,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -221,69 +289,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,6 +311,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -316,13 +329,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,151 +455,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,6 +496,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -518,39 +558,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,58 +599,43 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -652,88 +644,103 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -746,52 +753,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1064,14 +1071,14 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="78.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="43.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="78.283185840708" customWidth="1"/>
+    <col min="4" max="4" width="43.283185840708" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1170,11 +1177,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3:D21">
+      <formula1>"MULTIPLE_ELEMENTS"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 C2:C5 C9:C18">
       <formula1>"ID, NAME, CSS, XPATH, LINK_TEXT, CLASS_NAME"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3:D21">
-      <formula1>"MULTIPLE_ELEMENTS"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1191,11 +1198,11 @@
       <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="40.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="22.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="14.716814159292" customWidth="1"/>
+    <col min="2" max="2" width="40.141592920354" customWidth="1"/>
+    <col min="3" max="3" width="22.858407079646" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1257,12 +1264,12 @@
       <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14159292035398" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="29.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="68.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="17.6380952380952" customWidth="1"/>
-    <col min="4" max="4" width="28.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="29.858407079646" customWidth="1"/>
+    <col min="2" max="2" width="68.141592920354" customWidth="1"/>
+    <col min="3" max="3" width="17.6371681415929" customWidth="1"/>
+    <col min="4" max="4" width="28.141592920354" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1322,4 +1329,65 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="78.283185840708" customWidth="1"/>
+    <col min="4" max="4" width="43.283185840708" customWidth="1"/>
+    <col min="6" max="6" width="17.7964601769912" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>"ID, NAME, CSS, XPATH, LINK_TEXT, CLASS_NAME,UNIQUE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3:D21">
+      <formula1>"MULTIPLE_ELEMENTS"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C7 C8 C3:C5 C9:C18">
+      <formula1>"ID, NAME, CSS, XPATH, LINK_TEXT, CLASS_NAME"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>